--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -362,7 +362,7 @@
     <t>nomeComuneEnte</t>
   </si>
   <si>
-    <t>Dati della trascrizione</t>
+    <t>Dati generali</t>
   </si>
   <si>
     <t>Tipo richiesta</t>
@@ -384,6 +384,12 @@
   </si>
   <si>
     <t>testoLibero</t>
+  </si>
+  <si>
+    <t>Nuovo nome</t>
+  </si>
+  <si>
+    <t>nuovoNome</t>
   </si>
   <si>
     <t>Nuovo cognome</t>
@@ -472,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2294,7 +2300,7 @@
         <v>124</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>118</v>
@@ -2308,10 +2314,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>8</v>
@@ -2320,7 +2326,7 @@
         <v>118</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2328,13 +2334,13 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>118</v>
@@ -2348,19 +2354,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C94" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2368,10 +2374,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>11</v>
@@ -2380,7 +2386,7 @@
         <v>68</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2388,10 +2394,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>11</v>
@@ -2400,7 +2406,7 @@
         <v>68</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2408,30 +2414,30 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>11</v>
@@ -2440,7 +2446,7 @@
         <v>27</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>14</v>
@@ -2448,10 +2454,10 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>11</v>
@@ -2460,7 +2466,7 @@
         <v>27</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>14</v>
@@ -2468,10 +2474,10 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>11</v>
@@ -2480,7 +2486,7 @@
         <v>27</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>14</v>
@@ -2488,10 +2494,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>11</v>
@@ -2500,7 +2506,7 @@
         <v>27</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>14</v>
@@ -2508,10 +2514,10 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>11</v>
@@ -2520,9 +2526,29 @@
         <v>27</v>
       </c>
       <c r="E102" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="140">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -416,7 +422,13 @@
     <t>Flag - Richiedente Madre - Trascrizioni nascita</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.tipoRichiedente,!=,2}</t>
+  </si>
+  <si>
     <t>Flag - Richiedente Padre - Trascrizioni nascita</t>
+  </si>
+  <si>
+    <t>{evento.trascrizioneNascita.tipoRichiedente,!=,1}</t>
   </si>
   <si>
     <t>Flag - Richiedente Intestatario - Trascrizioni nascita</t>
@@ -478,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -490,6 +502,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.6484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="44.9375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -511,85 +524,100 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -611,1945 +639,2239 @@
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -59,7 +59,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>192</t>
+    <t>192.7</t>
   </si>
   <si>
     <t>Formazione atto</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="141">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,34 +32,37 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Decreto del Tribunale</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Richiesta di trascrizione</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Sentenza straniera</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>192.7</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Decreto del Tribunale</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Richiesta di trascrizione</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Sentenza straniera</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>192.7</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -640,2238 +643,2238 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
@@ -425,13 +425,13 @@
     <t>Flag - Richiedente Madre - Trascrizioni nascita</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoRichiedente,!=,2}</t>
+    <t>evento.trascrizioneNascita.tipoRichiedente,!=,2</t>
   </si>
   <si>
     <t>Flag - Richiedente Padre - Trascrizioni nascita</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoRichiedente,!=,1}</t>
+    <t>evento.trascrizioneNascita.tipoRichiedente,!=,1</t>
   </si>
   <si>
     <t>Flag - Richiedente Intestatario - Trascrizioni nascita</t>
@@ -505,7 +505,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.6484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="44.9375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="43.5546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2517,7 +2517,7 @@
         <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>121</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="140">
   <si>
     <t>Sezione</t>
   </si>
@@ -428,13 +428,10 @@
     <t>evento.trascrizioneNascita.tipoRichiedente,!=,2</t>
   </si>
   <si>
-    <t>Flag - Richiedente Padre - Trascrizioni nascita</t>
+    <t>Flag - Richiedente Intestatario - Trascrizioni nascita</t>
   </si>
   <si>
     <t>evento.trascrizioneNascita.tipoRichiedente,!=,1</t>
-  </si>
-  <si>
-    <t>Flag - Richiedente Intestatario - Trascrizioni nascita</t>
   </si>
 </sst>
 </file>
@@ -493,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2808,75 +2805,6 @@
         <v>139</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -98,205 +98,169 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Richiedente</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.dichiarante</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.tipoRichiedente,!=,4</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Madre</t>
+  </si>
+  <si>
+    <t>evento.madre</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,2</t>
+  </si>
+  <si>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>evento.padre</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,1</t>
+  </si>
+  <si>
     <t>Intestatario</t>
   </si>
   <si>
-    <t>Cognome</t>
-  </si>
-  <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Codice Fiscale</t>
-  </si>
-  <si>
-    <t>codiceFiscale</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato Nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia Nascita</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune Nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Nazionalità</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalità   - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Stato Residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia Residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune Residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo Residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>Madre</t>
-  </si>
-  <si>
-    <t>evento.madre</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Padre</t>
-  </si>
-  <si>
-    <t>evento.padre</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -490,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -502,7 +466,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.6484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="43.5546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="46.51953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -743,7 +707,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>30</v>
@@ -752,10 +716,10 @@
         <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -763,7 +727,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -772,13 +736,13 @@
         <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -786,22 +750,22 @@
         <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -809,7 +773,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -818,13 +782,13 @@
         <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -832,7 +796,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -841,13 +805,13 @@
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -855,7 +819,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -864,13 +828,13 @@
         <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -878,22 +842,22 @@
         <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -901,7 +865,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
@@ -910,13 +874,13 @@
         <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -924,7 +888,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
@@ -933,13 +897,13 @@
         <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -947,7 +911,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
@@ -956,13 +920,13 @@
         <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -970,7 +934,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
@@ -979,13 +943,13 @@
         <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -993,22 +957,22 @@
         <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -1016,22 +980,22 @@
         <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -1039,22 +1003,22 @@
         <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -1062,22 +1026,22 @@
         <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -1085,7 +1049,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
@@ -1094,13 +1058,13 @@
         <v>30</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -1108,7 +1072,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
@@ -1117,13 +1081,13 @@
         <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -1131,7 +1095,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
@@ -1140,13 +1104,13 @@
         <v>30</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -1154,7 +1118,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -1163,13 +1127,13 @@
         <v>30</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -1177,1097 +1141,1097 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2278,19 +2242,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2301,19 +2265,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2324,19 +2288,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2347,19 +2311,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2370,19 +2334,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2393,19 +2357,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2416,22 +2380,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>21</v>
@@ -2439,19 +2403,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2462,22 +2426,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>21</v>
@@ -2485,19 +2449,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2508,19 +2472,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2531,19 +2495,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2554,19 +2518,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2577,19 +2541,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2600,19 +2564,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2623,19 +2587,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2646,19 +2610,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2669,140 +2633,692 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E100" s="2" t="s">
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>139</v>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
@@ -2708,7 +2708,7 @@
         <v>73</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>82</v>
@@ -2846,7 +2846,7 @@
         <v>95</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>85</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -239,22 +239,16 @@
     <t>flagFirmatario</t>
   </si>
   <si>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>evento.padre</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
     <t>evento.madre</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,2</t>
-  </si>
-  <si>
-    <t>Padre</t>
-  </si>
-  <si>
-    <t>evento.padre</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,1</t>
   </si>
   <si>
     <t>Intestatario</t>
@@ -466,7 +460,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.6484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="46.51953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="43.5546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1225,7 +1219,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
@@ -1248,7 +1242,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
@@ -1271,7 +1265,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
@@ -1294,7 +1288,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
@@ -1317,7 +1311,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
@@ -1340,7 +1334,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
@@ -1363,7 +1357,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
@@ -1386,7 +1380,7 @@
         <v>15</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
@@ -1409,7 +1403,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
@@ -1432,7 +1426,7 @@
         <v>15</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
@@ -1455,7 +1449,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
@@ -1478,7 +1472,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
@@ -1501,7 +1495,7 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
@@ -1524,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
@@ -1547,7 +1541,7 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
@@ -1570,7 +1564,7 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
@@ -1593,7 +1587,7 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
@@ -1616,7 +1610,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
@@ -1639,7 +1633,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
@@ -1662,7 +1656,7 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
@@ -1685,7 +1679,7 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
@@ -1708,12 +1702,12 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>29</v>
@@ -1722,7 +1716,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>31</v>
@@ -1731,12 +1725,12 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>33</v>
@@ -1745,7 +1739,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>34</v>
@@ -1754,12 +1748,12 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>35</v>
@@ -1768,7 +1762,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>36</v>
@@ -1777,12 +1771,12 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>37</v>
@@ -1791,7 +1785,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>38</v>
@@ -1800,12 +1794,12 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>39</v>
@@ -1814,7 +1808,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>40</v>
@@ -1823,12 +1817,12 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>41</v>
@@ -1837,7 +1831,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>42</v>
@@ -1846,12 +1840,12 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>43</v>
@@ -1860,7 +1854,7 @@
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>44</v>
@@ -1869,12 +1863,12 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>45</v>
@@ -1883,7 +1877,7 @@
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>46</v>
@@ -1892,12 +1886,12 @@
         <v>15</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>47</v>
@@ -1906,7 +1900,7 @@
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>48</v>
@@ -1915,12 +1909,12 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>49</v>
@@ -1929,7 +1923,7 @@
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>50</v>
@@ -1938,12 +1932,12 @@
         <v>15</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>51</v>
@@ -1952,7 +1946,7 @@
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>52</v>
@@ -1961,12 +1955,12 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>53</v>
@@ -1975,7 +1969,7 @@
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>54</v>
@@ -1984,12 +1978,12 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>55</v>
@@ -1998,7 +1992,7 @@
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>56</v>
@@ -2007,12 +2001,12 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>57</v>
@@ -2021,7 +2015,7 @@
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>58</v>
@@ -2030,12 +2024,12 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>59</v>
@@ -2044,7 +2038,7 @@
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>60</v>
@@ -2053,12 +2047,12 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>61</v>
@@ -2067,7 +2061,7 @@
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>62</v>
@@ -2076,12 +2070,12 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>63</v>
@@ -2090,7 +2084,7 @@
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>64</v>
@@ -2099,12 +2093,12 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>65</v>
@@ -2113,7 +2107,7 @@
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>66</v>
@@ -2122,12 +2116,12 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>67</v>
@@ -2136,7 +2130,7 @@
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>68</v>
@@ -2145,12 +2139,12 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>69</v>
@@ -2159,7 +2153,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>70</v>
@@ -2168,12 +2162,12 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>71</v>
@@ -2182,7 +2176,7 @@
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>72</v>
@@ -2191,12 +2185,12 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>73</v>
@@ -2205,7 +2199,7 @@
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>74</v>
@@ -2214,12 +2208,12 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>29</v>
@@ -2228,7 +2222,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>31</v>
@@ -2242,7 +2236,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>33</v>
@@ -2251,7 +2245,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>34</v>
@@ -2265,7 +2259,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>35</v>
@@ -2274,7 +2268,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>36</v>
@@ -2288,7 +2282,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>37</v>
@@ -2297,7 +2291,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>38</v>
@@ -2311,7 +2305,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>39</v>
@@ -2320,7 +2314,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>40</v>
@@ -2334,7 +2328,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>41</v>
@@ -2343,7 +2337,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>42</v>
@@ -2357,7 +2351,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>43</v>
@@ -2366,7 +2360,7 @@
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>44</v>
@@ -2380,7 +2374,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>45</v>
@@ -2389,7 +2383,7 @@
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>46</v>
@@ -2403,7 +2397,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>47</v>
@@ -2412,7 +2406,7 @@
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>48</v>
@@ -2426,7 +2420,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>49</v>
@@ -2435,7 +2429,7 @@
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>50</v>
@@ -2449,7 +2443,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>51</v>
@@ -2458,7 +2452,7 @@
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>52</v>
@@ -2472,7 +2466,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>53</v>
@@ -2481,7 +2475,7 @@
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>54</v>
@@ -2495,7 +2489,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>55</v>
@@ -2504,7 +2498,7 @@
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>56</v>
@@ -2518,7 +2512,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>57</v>
@@ -2527,7 +2521,7 @@
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>58</v>
@@ -2541,7 +2535,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>59</v>
@@ -2550,7 +2544,7 @@
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>60</v>
@@ -2564,7 +2558,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>61</v>
@@ -2573,7 +2567,7 @@
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>62</v>
@@ -2587,7 +2581,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>63</v>
@@ -2596,7 +2590,7 @@
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>64</v>
@@ -2610,7 +2604,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>65</v>
@@ -2619,7 +2613,7 @@
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>66</v>
@@ -2633,7 +2627,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>67</v>
@@ -2642,7 +2636,7 @@
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>68</v>
@@ -2656,7 +2650,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>69</v>
@@ -2665,7 +2659,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>70</v>
@@ -2679,7 +2673,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>71</v>
@@ -2688,7 +2682,7 @@
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>72</v>
@@ -2702,7 +2696,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>73</v>
@@ -2711,7 +2705,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>74</v>
@@ -2725,19 +2719,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2748,19 +2742,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2771,19 +2765,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2794,19 +2788,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E102" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2817,19 +2811,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2840,19 +2834,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E104" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2863,19 +2857,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2886,19 +2880,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2909,19 +2903,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2932,19 +2926,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2955,19 +2949,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2978,19 +2972,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3001,19 +2995,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3024,19 +3018,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3047,19 +3041,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3070,19 +3064,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3093,19 +3087,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3116,19 +3110,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3139,19 +3133,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3162,19 +3156,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3185,7 +3179,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>69</v>
@@ -3194,7 +3188,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>70</v>
@@ -3203,12 +3197,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>71</v>
@@ -3217,7 +3211,7 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>72</v>
@@ -3226,12 +3220,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>73</v>
@@ -3240,7 +3234,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>74</v>
@@ -3249,12 +3243,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>69</v>
@@ -3263,7 +3257,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>70</v>
@@ -3272,12 +3266,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>71</v>
@@ -3286,7 +3280,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>72</v>
@@ -3295,12 +3289,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>73</v>
@@ -3309,7 +3303,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>74</v>
@@ -3318,7 +3312,7 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="129">
   <si>
     <t>Sezione</t>
   </si>
@@ -167,6 +167,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -279,6 +285,9 @@
   </si>
   <si>
     <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Data formazione documento</t>
@@ -448,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -940,7 +949,7 @@
         <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>32</v>
@@ -1138,7 +1147,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>30</v>
@@ -1201,42 +1210,42 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1247,19 +1256,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1270,19 +1279,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1293,19 +1302,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1316,19 +1325,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1339,19 +1348,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1362,22 +1371,22 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>21</v>
@@ -1385,22 +1394,22 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>21</v>
@@ -1408,22 +1417,22 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>21</v>
@@ -1431,22 +1440,22 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>21</v>
@@ -1454,22 +1463,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>21</v>
@@ -1477,19 +1486,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1500,19 +1509,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1523,19 +1532,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1546,19 +1555,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1569,19 +1578,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1592,19 +1601,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1615,19 +1624,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1638,19 +1647,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1661,19 +1670,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1684,19 +1693,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1710,16 +1719,16 @@
         <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1733,16 +1742,16 @@
         <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1753,19 +1762,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1776,19 +1785,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1799,19 +1808,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1822,19 +1831,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1845,19 +1854,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1868,22 +1877,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>21</v>
@@ -1891,19 +1900,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1914,19 +1923,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>15</v>
@@ -1937,19 +1946,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1960,22 +1969,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>21</v>
@@ -1983,22 +1992,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>21</v>
@@ -2006,19 +2015,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2029,19 +2038,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2052,19 +2061,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2075,19 +2084,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2098,19 +2107,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2121,19 +2130,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2144,19 +2153,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2167,19 +2176,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2190,19 +2199,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2216,7 +2225,7 @@
         <v>79</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2225,7 +2234,7 @@
         <v>80</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2239,16 +2248,16 @@
         <v>79</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2262,16 +2271,16 @@
         <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2282,19 +2291,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2305,19 +2314,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2328,19 +2337,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2351,19 +2360,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2374,22 +2383,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>21</v>
@@ -2397,19 +2406,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2420,22 +2429,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>21</v>
@@ -2443,22 +2452,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>21</v>
@@ -2466,19 +2475,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2489,22 +2498,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>21</v>
@@ -2512,22 +2521,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>21</v>
@@ -2535,19 +2544,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2558,19 +2567,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2581,19 +2590,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2604,19 +2613,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2627,19 +2636,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2650,19 +2659,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2673,19 +2682,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2696,19 +2705,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2722,16 +2731,16 @@
         <v>81</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2745,16 +2754,16 @@
         <v>81</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2768,16 +2777,16 @@
         <v>81</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2791,16 +2800,16 @@
         <v>81</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2811,19 +2820,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2834,19 +2843,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2857,7 +2866,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>89</v>
@@ -2866,7 +2875,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>90</v>
@@ -2880,19 +2889,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2903,19 +2912,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2926,19 +2935,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2949,19 +2958,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2972,19 +2981,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -2995,19 +3004,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3018,19 +3027,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3041,19 +3050,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3064,19 +3073,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3087,19 +3096,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3110,19 +3119,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3133,19 +3142,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3156,19 +3165,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3179,125 +3188,125 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -3306,13 +3315,128 @@
         <v>80</v>
       </c>
       <c r="E124" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
         <v>125</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -239,160 +239,163 @@
     <t>flagComparente</t>
   </si>
   <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>evento.padre</t>
+  </si>
+  <si>
+    <t>Madre</t>
+  </si>
+  <si>
+    <t>evento.madre</t>
+  </si>
+  <si>
+    <t>Intestatario</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>Atto da trascrivere</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.attoEstero.enteEstero</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>Descrizione documento</t>
+  </si>
+  <si>
+    <t>descrizione</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Sentenza Tribunale Italiano</t>
+  </si>
+  <si>
+    <t>evento.enteDichiarante</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Dati generali</t>
+  </si>
+  <si>
+    <t>Tipo richiesta</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita</t>
+  </si>
+  <si>
+    <t>tipoDichiarazione</t>
+  </si>
+  <si>
+    <t>Data richiesta trascrizione</t>
+  </si>
+  <si>
+    <t>dataComunicazione</t>
+  </si>
+  <si>
+    <t>Riassunto</t>
+  </si>
+  <si>
+    <t>testoLibero</t>
+  </si>
+  <si>
+    <t>Nuovo nome</t>
+  </si>
+  <si>
+    <t>nuovoNome</t>
+  </si>
+  <si>
+    <t>Nuovo cognome</t>
+  </si>
+  <si>
+    <t>nuovoCognome</t>
+  </si>
+  <si>
+    <t>Dettagli evento</t>
+  </si>
+  <si>
+    <t>Tipo richiedente</t>
+  </si>
+  <si>
+    <t>tipoRichiedente</t>
+  </si>
+  <si>
+    <t>Tipo richiedente - Descrizione</t>
+  </si>
+  <si>
+    <t>descrizioneTipoRichiedente</t>
+  </si>
+  <si>
+    <t>Flag - Richiedente Madre - Trascrizioni nascita</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.tipoRichiedente,!=,2</t>
+  </si>
+  <si>
     <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Padre</t>
-  </si>
-  <si>
-    <t>evento.padre</t>
-  </si>
-  <si>
-    <t>Madre</t>
-  </si>
-  <si>
-    <t>evento.madre</t>
-  </si>
-  <si>
-    <t>Intestatario</t>
-  </si>
-  <si>
-    <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Atto da trascrivere</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.attoEstero.enteEstero</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>Stato ente</t>
-  </si>
-  <si>
-    <t>nazioneEnte</t>
-  </si>
-  <si>
-    <t>Stato ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeNazioneEnte</t>
-  </si>
-  <si>
-    <t>comuneEstero</t>
-  </si>
-  <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
-    <t>Descrizione documento</t>
-  </si>
-  <si>
-    <t>descrizione</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Sentenza Tribunale Italiano</t>
-  </si>
-  <si>
-    <t>evento.enteDichiarante</t>
-  </si>
-  <si>
-    <t>Provincia ente</t>
-  </si>
-  <si>
-    <t>idProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Comune ente</t>
-  </si>
-  <si>
-    <t>idComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Dati generali</t>
-  </si>
-  <si>
-    <t>Tipo richiesta</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita</t>
-  </si>
-  <si>
-    <t>tipoDichiarazione</t>
-  </si>
-  <si>
-    <t>Data richiesta trascrizione</t>
-  </si>
-  <si>
-    <t>dataComunicazione</t>
-  </si>
-  <si>
-    <t>Riassunto</t>
-  </si>
-  <si>
-    <t>testoLibero</t>
-  </si>
-  <si>
-    <t>Nuovo nome</t>
-  </si>
-  <si>
-    <t>nuovoNome</t>
-  </si>
-  <si>
-    <t>Nuovo cognome</t>
-  </si>
-  <si>
-    <t>nuovoCognome</t>
-  </si>
-  <si>
-    <t>Dettagli evento</t>
-  </si>
-  <si>
-    <t>Tipo richiedente</t>
-  </si>
-  <si>
-    <t>tipoRichiedente</t>
-  </si>
-  <si>
-    <t>Tipo richiedente - Descrizione</t>
-  </si>
-  <si>
-    <t>descrizioneTipoRichiedente</t>
-  </si>
-  <si>
-    <t>Flag - Richiedente Madre - Trascrizioni nascita</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.tipoRichiedente,!=,2</t>
   </si>
   <si>
     <t>Flag - Richiedente Intestatario - Trascrizioni nascita</t>
@@ -3352,7 +3355,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3372,7 +3375,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>71</v>
@@ -3390,12 +3393,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>73</v>
@@ -3413,15 +3416,15 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3436,7 +3439,7 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="129">
   <si>
     <t>Sezione</t>
   </si>
@@ -239,7 +239,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>Firmatario</t>
+    <t>flag firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>
@@ -393,9 +393,6 @@
   </si>
   <si>
     <t>evento.trascrizioneNascita.tipoRichiedente,!=,2</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
   </si>
   <si>
     <t>Flag - Richiedente Intestatario - Trascrizioni nascita</t>
@@ -3355,7 +3352,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3375,7 +3372,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>71</v>
@@ -3393,12 +3390,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>73</v>
@@ -3416,15 +3413,15 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3439,7 +3436,7 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -249,6 +249,30 @@
   </si>
   <si>
     <t>evento.padre</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Madre</t>
@@ -460,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1765,19 +1789,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1788,19 +1812,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1811,19 +1835,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1834,19 +1858,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1857,19 +1881,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1880,19 +1904,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1903,19 +1927,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1926,22 +1950,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>21</v>
@@ -1949,19 +1973,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1972,22 +1996,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>21</v>
@@ -1995,22 +2019,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>21</v>
@@ -2018,22 +2042,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>21</v>
@@ -2041,19 +2065,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2064,22 +2088,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>21</v>
@@ -2087,22 +2111,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>21</v>
@@ -2110,19 +2134,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2133,19 +2157,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2156,19 +2180,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2179,19 +2203,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2202,19 +2226,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2225,19 +2249,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2248,19 +2272,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2271,19 +2295,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2294,19 +2318,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2317,19 +2341,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2340,19 +2364,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2363,19 +2387,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2386,19 +2410,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2409,19 +2433,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2432,19 +2456,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2455,22 +2479,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>21</v>
@@ -2478,19 +2502,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2501,22 +2525,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>21</v>
@@ -2524,22 +2548,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>21</v>
@@ -2547,19 +2571,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2570,19 +2594,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2593,19 +2617,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2616,19 +2640,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2639,22 +2663,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>21</v>
@@ -2662,19 +2686,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2685,22 +2709,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>21</v>
@@ -2708,22 +2732,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>21</v>
@@ -2731,19 +2755,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2754,19 +2778,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2777,19 +2801,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2800,19 +2824,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2823,19 +2847,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2846,19 +2870,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2869,19 +2893,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2892,19 +2916,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2915,19 +2939,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2938,19 +2962,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2961,19 +2985,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2984,19 +3008,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3007,19 +3031,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3030,19 +3054,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3053,19 +3077,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3076,19 +3100,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3099,19 +3123,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3122,19 +3146,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3145,19 +3169,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3168,19 +3192,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3191,19 +3215,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3214,19 +3238,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3237,19 +3261,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3260,19 +3284,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3283,19 +3307,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3306,140 +3330,416 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E129" s="2" t="s">
+      <c r="B134" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>129</v>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -251,6 +251,9 @@
     <t>evento.padre</t>
   </si>
   <si>
+    <t>opzionale</t>
+  </si>
+  <si>
     <t>Provincia AIRE</t>
   </si>
   <si>
@@ -411,21 +414,6 @@
   </si>
   <si>
     <t>descrizioneTipoRichiedente</t>
-  </si>
-  <si>
-    <t>Flag - Richiedente Madre - Trascrizioni nascita</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.tipoRichiedente,!=,2</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>Flag - Richiedente Intestatario - Trascrizioni nascita</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.tipoRichiedente,!=,1</t>
   </si>
 </sst>
 </file>
@@ -484,13 +472,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.45703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="25.390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
@@ -1278,7 +1266,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
@@ -1301,7 +1289,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
@@ -1324,7 +1312,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
@@ -1347,7 +1335,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
@@ -1370,7 +1358,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
@@ -1393,7 +1381,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40">
@@ -1416,7 +1404,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
@@ -1439,7 +1427,7 @@
         <v>15</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
@@ -1462,7 +1450,7 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43">
@@ -1485,7 +1473,7 @@
         <v>15</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44">
@@ -1508,7 +1496,7 @@
         <v>15</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45">
@@ -1531,7 +1519,7 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46">
@@ -1554,7 +1542,7 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47">
@@ -1577,7 +1565,7 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48">
@@ -1600,7 +1588,7 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49">
@@ -1623,7 +1611,7 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50">
@@ -1646,7 +1634,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51">
@@ -1669,7 +1657,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52">
@@ -1692,7 +1680,7 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53">
@@ -1715,7 +1703,7 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54">
@@ -1738,7 +1726,7 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
@@ -1761,7 +1749,7 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
@@ -1784,7 +1772,7 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
@@ -1792,7 +1780,7 @@
         <v>77</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
@@ -1801,13 +1789,13 @@
         <v>78</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58">
@@ -1815,7 +1803,7 @@
         <v>77</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
@@ -1824,13 +1812,13 @@
         <v>78</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59">
@@ -1838,7 +1826,7 @@
         <v>77</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
@@ -1847,13 +1835,13 @@
         <v>78</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60">
@@ -1861,7 +1849,7 @@
         <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
@@ -1870,18 +1858,18 @@
         <v>78</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>29</v>
@@ -1890,7 +1878,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>31</v>
@@ -1899,12 +1887,12 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>33</v>
@@ -1913,7 +1901,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>34</v>
@@ -1922,12 +1910,12 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>35</v>
@@ -1936,7 +1924,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>36</v>
@@ -1945,12 +1933,12 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>37</v>
@@ -1959,7 +1947,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>38</v>
@@ -1968,12 +1956,12 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>39</v>
@@ -1982,7 +1970,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>40</v>
@@ -1991,12 +1979,12 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>41</v>
@@ -2005,7 +1993,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>42</v>
@@ -2014,12 +2002,12 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>43</v>
@@ -2028,7 +2016,7 @@
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>44</v>
@@ -2037,12 +2025,12 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>45</v>
@@ -2051,7 +2039,7 @@
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>46</v>
@@ -2060,12 +2048,12 @@
         <v>15</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>47</v>
@@ -2074,7 +2062,7 @@
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>48</v>
@@ -2083,12 +2071,12 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>49</v>
@@ -2097,7 +2085,7 @@
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>50</v>
@@ -2106,12 +2094,12 @@
         <v>15</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>51</v>
@@ -2120,7 +2108,7 @@
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>52</v>
@@ -2129,12 +2117,12 @@
         <v>15</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>53</v>
@@ -2143,7 +2131,7 @@
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>54</v>
@@ -2152,12 +2140,12 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>55</v>
@@ -2166,7 +2154,7 @@
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>56</v>
@@ -2175,12 +2163,12 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>57</v>
@@ -2189,7 +2177,7 @@
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>58</v>
@@ -2198,12 +2186,12 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>59</v>
@@ -2212,7 +2200,7 @@
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>60</v>
@@ -2221,12 +2209,12 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>61</v>
@@ -2235,7 +2223,7 @@
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>62</v>
@@ -2244,12 +2232,12 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>63</v>
@@ -2258,7 +2246,7 @@
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>64</v>
@@ -2267,12 +2255,12 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>65</v>
@@ -2281,7 +2269,7 @@
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>66</v>
@@ -2290,12 +2278,12 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>67</v>
@@ -2304,7 +2292,7 @@
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>68</v>
@@ -2313,12 +2301,12 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>69</v>
@@ -2327,7 +2315,7 @@
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>70</v>
@@ -2336,12 +2324,12 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>71</v>
@@ -2350,7 +2338,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>72</v>
@@ -2359,12 +2347,12 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>73</v>
@@ -2373,7 +2361,7 @@
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>74</v>
@@ -2382,12 +2370,12 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>75</v>
@@ -2396,7 +2384,7 @@
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>76</v>
@@ -2405,104 +2393,104 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>29</v>
@@ -2511,7 +2499,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>31</v>
@@ -2525,7 +2513,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>33</v>
@@ -2534,7 +2522,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>34</v>
@@ -2548,7 +2536,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>35</v>
@@ -2557,7 +2545,7 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>36</v>
@@ -2571,7 +2559,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>37</v>
@@ -2580,7 +2568,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>38</v>
@@ -2594,7 +2582,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>39</v>
@@ -2603,7 +2591,7 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>40</v>
@@ -2617,7 +2605,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>41</v>
@@ -2626,7 +2614,7 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>42</v>
@@ -2640,7 +2628,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>43</v>
@@ -2649,7 +2637,7 @@
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>44</v>
@@ -2663,7 +2651,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>45</v>
@@ -2672,7 +2660,7 @@
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>46</v>
@@ -2686,7 +2674,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>47</v>
@@ -2695,7 +2683,7 @@
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>48</v>
@@ -2709,7 +2697,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>49</v>
@@ -2718,7 +2706,7 @@
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>50</v>
@@ -2732,7 +2720,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>51</v>
@@ -2741,7 +2729,7 @@
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>52</v>
@@ -2755,7 +2743,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>53</v>
@@ -2764,7 +2752,7 @@
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>54</v>
@@ -2778,7 +2766,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>55</v>
@@ -2787,7 +2775,7 @@
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>56</v>
@@ -2801,7 +2789,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>57</v>
@@ -2810,7 +2798,7 @@
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>58</v>
@@ -2824,7 +2812,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>59</v>
@@ -2833,7 +2821,7 @@
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>60</v>
@@ -2847,7 +2835,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>61</v>
@@ -2856,7 +2844,7 @@
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>62</v>
@@ -2870,7 +2858,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>63</v>
@@ -2879,7 +2867,7 @@
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>64</v>
@@ -2893,7 +2881,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>65</v>
@@ -2902,7 +2890,7 @@
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>66</v>
@@ -2916,7 +2904,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>67</v>
@@ -2925,7 +2913,7 @@
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>68</v>
@@ -2939,7 +2927,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>69</v>
@@ -2948,7 +2936,7 @@
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>70</v>
@@ -2962,7 +2950,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>71</v>
@@ -2971,7 +2959,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>72</v>
@@ -2985,7 +2973,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>73</v>
@@ -2994,7 +2982,7 @@
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>74</v>
@@ -3008,7 +2996,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>75</v>
@@ -3017,7 +3005,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>76</v>
@@ -3031,19 +3019,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3054,19 +3042,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3077,19 +3065,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3100,19 +3088,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3123,19 +3111,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3146,19 +3134,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3169,19 +3157,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3192,7 +3180,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>51</v>
@@ -3201,10 +3189,10 @@
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3215,19 +3203,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3238,19 +3226,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3261,19 +3249,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3284,19 +3272,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3307,19 +3295,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3330,19 +3318,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3353,19 +3341,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3376,19 +3364,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3399,19 +3387,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3422,19 +3410,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3445,19 +3433,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3468,19 +3456,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3491,19 +3479,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3514,19 +3502,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3537,19 +3525,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3560,19 +3548,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3583,163 +3571,25 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -119,6 +119,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -173,13 +179,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -472,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -771,7 +777,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>30</v>
@@ -863,7 +869,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>30</v>
@@ -895,7 +901,7 @@
         <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>32</v>
@@ -918,7 +924,7 @@
         <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>32</v>
@@ -941,7 +947,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>32</v>
@@ -987,7 +993,7 @@
         <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>32</v>
@@ -1185,7 +1191,7 @@
         <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>30</v>
@@ -1248,1244 +1254,1244 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="E57" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88">
@@ -2493,22 +2499,22 @@
         <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89">
@@ -2516,22 +2522,22 @@
         <v>90</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90">
@@ -2539,39 +2545,39 @@
         <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2582,19 +2588,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2605,19 +2611,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2628,19 +2634,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2651,22 +2657,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>21</v>
@@ -2674,19 +2680,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2697,22 +2703,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>21</v>
@@ -2720,22 +2726,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>21</v>
@@ -2743,22 +2749,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>21</v>
@@ -2766,19 +2772,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2789,22 +2795,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>21</v>
@@ -2812,22 +2818,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>21</v>
@@ -2835,19 +2841,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2858,19 +2864,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2881,19 +2887,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2904,19 +2910,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2927,19 +2933,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2950,19 +2956,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2973,19 +2979,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2996,19 +3002,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3019,19 +3025,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3042,19 +3048,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3065,19 +3071,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3088,19 +3094,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3114,16 +3120,16 @@
         <v>92</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3137,16 +3143,16 @@
         <v>92</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3160,16 +3166,16 @@
         <v>92</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3183,16 +3189,16 @@
         <v>92</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3203,19 +3209,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3226,19 +3232,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3249,19 +3255,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3272,16 +3278,16 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>102</v>
@@ -3295,19 +3301,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3318,19 +3324,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3341,19 +3347,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3364,180 +3370,180 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3548,19 +3554,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3571,24 +3577,116 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E135" s="2" t="s">
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -478,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1214,7 +1220,7 @@
         <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>30</v>
@@ -1277,1290 +1283,1290 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="E59" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91">
@@ -2568,22 +2574,22 @@
         <v>92</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92">
@@ -2591,22 +2597,22 @@
         <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93">
@@ -2614,7 +2620,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
@@ -2623,30 +2629,30 @@
         <v>93</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2657,19 +2663,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2680,19 +2686,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2703,19 +2709,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2726,19 +2732,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2749,22 +2755,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>21</v>
@@ -2772,19 +2778,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2795,22 +2801,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>21</v>
@@ -2818,19 +2824,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>15</v>
@@ -2841,19 +2847,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2864,22 +2870,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>21</v>
@@ -2887,22 +2893,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>21</v>
@@ -2910,19 +2916,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2933,19 +2939,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2956,19 +2962,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2979,19 +2985,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3002,19 +3008,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3025,19 +3031,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3048,19 +3054,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3071,19 +3077,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3094,19 +3100,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3117,19 +3123,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3140,19 +3146,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3163,19 +3169,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3186,19 +3192,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3212,16 +3218,16 @@
         <v>94</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3235,16 +3241,16 @@
         <v>94</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3258,16 +3264,16 @@
         <v>94</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3281,16 +3287,16 @@
         <v>94</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3301,19 +3307,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3324,19 +3330,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3347,19 +3353,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3370,16 +3376,16 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>104</v>
@@ -3388,254 +3394,254 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3646,19 +3652,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3669,24 +3675,116 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E139" s="2" t="s">
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="140">
   <si>
     <t>Sezione</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -484,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1243,7 +1249,7 @@
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>30</v>
@@ -1306,1336 +1312,1336 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94">
@@ -2643,22 +2649,22 @@
         <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95">
@@ -2666,22 +2672,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96">
@@ -2689,7 +2695,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
@@ -2698,30 +2704,30 @@
         <v>95</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2732,19 +2738,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2755,19 +2761,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2778,19 +2784,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2801,19 +2807,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2824,22 +2830,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>21</v>
@@ -2847,19 +2853,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2870,22 +2876,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>21</v>
@@ -2893,19 +2899,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>15</v>
@@ -2916,19 +2922,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2939,22 +2945,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>21</v>
@@ -2962,22 +2968,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>21</v>
@@ -2985,19 +2991,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3008,19 +3014,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3031,19 +3037,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3054,19 +3060,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3077,19 +3083,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3100,19 +3106,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3123,19 +3129,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3146,19 +3152,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3169,19 +3175,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3192,19 +3198,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3215,19 +3221,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3238,19 +3244,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3261,19 +3267,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3284,19 +3290,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3310,16 +3316,16 @@
         <v>96</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3333,16 +3339,16 @@
         <v>96</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3356,16 +3362,16 @@
         <v>96</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3379,16 +3385,16 @@
         <v>96</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3399,19 +3405,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3422,19 +3428,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3445,19 +3451,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3468,16 +3474,16 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>106</v>
@@ -3486,254 +3492,254 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3744,19 +3750,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3767,24 +3773,116 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E143" s="2" t="s">
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F143" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="2" t="s">
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -306,6 +306,78 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -490,17 +562,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="25.390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="25.6484375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="43.5546875" customWidth="true" bestFit="true"/>
   </cols>
@@ -3411,7 +3483,7 @@
         <v>99</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>100</v>
@@ -3423,7 +3495,7 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="128">
@@ -3434,7 +3506,7 @@
         <v>102</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>100</v>
@@ -3446,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="129">
@@ -3457,7 +3529,7 @@
         <v>104</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>100</v>
@@ -3469,7 +3541,7 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="130">
@@ -3477,7 +3549,7 @@
         <v>98</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
@@ -3486,13 +3558,13 @@
         <v>100</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="131">
@@ -3500,22 +3572,22 @@
         <v>98</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="132">
@@ -3523,7 +3595,7 @@
         <v>98</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
@@ -3532,13 +3604,13 @@
         <v>100</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="133">
@@ -3561,24 +3633,24 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3589,19 +3661,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3612,19 +3684,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3635,19 +3707,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3658,19 +3730,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3681,65 +3753,65 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E141" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3750,19 +3822,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3773,19 +3845,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3796,19 +3868,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3819,19 +3891,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3842,47 +3914,323 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" s="2" t="s">
+      <c r="E147" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="166">
   <si>
     <t>Sezione</t>
   </si>
@@ -306,6 +306,12 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Atto nascita intestatario</t>
@@ -562,14 +568,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="25.390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -3477,39 +3483,39 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>103</v>
@@ -3523,7 +3529,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>104</v>
@@ -3532,7 +3538,7 @@
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>105</v>
@@ -3546,7 +3552,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>106</v>
@@ -3555,7 +3561,7 @@
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>107</v>
@@ -3569,7 +3575,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>108</v>
@@ -3578,7 +3584,7 @@
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>109</v>
@@ -3592,7 +3598,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>110</v>
@@ -3601,10 +3607,10 @@
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3615,19 +3621,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3638,7 +3644,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>113</v>
@@ -3647,10 +3653,10 @@
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3661,19 +3667,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3684,7 +3690,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>116</v>
@@ -3693,7 +3699,7 @@
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>117</v>
@@ -3707,7 +3713,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>118</v>
@@ -3716,7 +3722,7 @@
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>119</v>
@@ -3730,7 +3736,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>120</v>
@@ -3739,7 +3745,7 @@
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>121</v>
@@ -3753,39 +3759,39 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>127</v>
@@ -3799,7 +3805,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>128</v>
@@ -3808,7 +3814,7 @@
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>129</v>
@@ -3822,19 +3828,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3845,16 +3851,16 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>132</v>
@@ -3868,16 +3874,16 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>134</v>
@@ -3891,7 +3897,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>135</v>
@@ -3900,7 +3906,7 @@
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>136</v>
@@ -3914,42 +3920,42 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E146" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3960,19 +3966,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3983,19 +3989,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4006,7 +4012,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>141</v>
@@ -4015,7 +4021,7 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>142</v>
@@ -4029,7 +4035,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>143</v>
@@ -4038,7 +4044,7 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>144</v>
@@ -4052,7 +4058,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>145</v>
@@ -4061,7 +4067,7 @@
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>146</v>
@@ -4075,39 +4081,39 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>152</v>
@@ -4121,7 +4127,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>153</v>
@@ -4130,7 +4136,7 @@
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>154</v>
@@ -4144,16 +4150,16 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>156</v>
@@ -4167,16 +4173,16 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>158</v>
@@ -4190,19 +4196,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4213,16 +4219,16 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>163</v>
@@ -4231,6 +4237,29 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -306,12 +306,6 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Atto nascita intestatario</t>
@@ -568,14 +562,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="25.390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -3483,39 +3477,39 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>103</v>
@@ -3529,7 +3523,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>104</v>
@@ -3538,7 +3532,7 @@
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>105</v>
@@ -3552,7 +3546,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>106</v>
@@ -3561,7 +3555,7 @@
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>107</v>
@@ -3575,7 +3569,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>108</v>
@@ -3584,7 +3578,7 @@
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>109</v>
@@ -3598,7 +3592,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>110</v>
@@ -3607,10 +3601,10 @@
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3621,19 +3615,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="E133" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3644,7 +3638,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>113</v>
@@ -3653,10 +3647,10 @@
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3667,19 +3661,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="E135" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3690,7 +3684,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>116</v>
@@ -3699,7 +3693,7 @@
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>117</v>
@@ -3713,7 +3707,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>118</v>
@@ -3722,7 +3716,7 @@
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>119</v>
@@ -3736,7 +3730,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>120</v>
@@ -3745,7 +3739,7 @@
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>121</v>
@@ -3759,39 +3753,39 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>127</v>
@@ -3805,7 +3799,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>128</v>
@@ -3814,7 +3808,7 @@
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>129</v>
@@ -3828,19 +3822,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="E142" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3851,16 +3845,16 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>132</v>
@@ -3874,16 +3868,16 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>134</v>
@@ -3897,7 +3891,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>135</v>
@@ -3906,7 +3900,7 @@
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>136</v>
@@ -3920,42 +3914,42 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3966,19 +3960,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3989,19 +3983,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4012,7 +4006,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>141</v>
@@ -4021,7 +4015,7 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>142</v>
@@ -4035,7 +4029,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>143</v>
@@ -4044,7 +4038,7 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>144</v>
@@ -4058,7 +4052,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>145</v>
@@ -4067,7 +4061,7 @@
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>146</v>
@@ -4081,39 +4075,39 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>152</v>
@@ -4127,7 +4121,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>153</v>
@@ -4136,7 +4130,7 @@
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>154</v>
@@ -4150,16 +4144,16 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>156</v>
@@ -4173,16 +4167,16 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>158</v>
@@ -4196,19 +4190,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="E158" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4219,16 +4213,16 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>163</v>
@@ -4237,29 +4231,6 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="170">
   <si>
     <t>Sezione</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -568,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -913,7 +925,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>30</v>
@@ -936,7 +948,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>30</v>
@@ -982,7 +994,7 @@
         <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>30</v>
@@ -1005,7 +1017,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>30</v>
@@ -1014,7 +1026,7 @@
         <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>32</v>
@@ -1083,7 +1095,7 @@
         <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>32</v>
@@ -1106,7 +1118,7 @@
         <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>32</v>
@@ -1129,7 +1141,7 @@
         <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>32</v>
@@ -1350,7 +1362,7 @@
         <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>30</v>
@@ -1373,7 +1385,7 @@
         <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>30</v>
@@ -1413,1537 +1425,1537 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2954,19 +2966,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2977,22 +2989,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>21</v>
@@ -3000,19 +3012,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3023,22 +3035,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>21</v>
@@ -3046,22 +3058,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>21</v>
@@ -3069,19 +3081,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3092,19 +3104,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3115,19 +3127,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3138,19 +3150,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3161,22 +3173,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>21</v>
@@ -3184,19 +3196,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3207,22 +3219,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>21</v>
@@ -3230,22 +3242,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>21</v>
@@ -3253,19 +3265,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3276,19 +3288,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3299,19 +3311,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3322,19 +3334,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3345,19 +3357,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3368,19 +3380,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3391,19 +3403,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3414,19 +3426,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3437,19 +3449,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3460,19 +3472,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3483,19 +3495,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3509,22 +3521,22 @@
         <v>100</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E128" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129">
@@ -3532,22 +3544,22 @@
         <v>100</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130">
@@ -3555,22 +3567,22 @@
         <v>100</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131">
@@ -3578,22 +3590,22 @@
         <v>100</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132">
@@ -3601,22 +3613,22 @@
         <v>100</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133">
@@ -3624,22 +3636,22 @@
         <v>100</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134">
@@ -3647,22 +3659,22 @@
         <v>100</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135">
@@ -3670,453 +3682,453 @@
         <v>100</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E153" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4127,139 +4139,323 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="C165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E160" s="2" t="s">
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
+      <c r="B167" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_020.xlsx
@@ -41,25 +41,25 @@
     <t>Decreto del Tribunale</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Richiesta di trascrizione</t>
+  </si>
+  <si>
+    <t>Sentenza straniera</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>192.7</t>
+  </si>
+  <si>
     <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Richiesta di trascrizione</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Sentenza straniera</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>192.7</t>
   </si>
   <si>
     <t>Si puo' ignorare la sezione per</t>
@@ -649,7 +649,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -669,10 +669,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -689,13 +689,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -741,7 +741,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
@@ -764,7 +764,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
@@ -787,7 +787,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -810,7 +810,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -833,7 +833,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>30</v>
@@ -856,7 +856,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
@@ -879,7 +879,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>30</v>
@@ -902,7 +902,7 @@
         <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>30</v>
@@ -925,7 +925,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>30</v>
@@ -948,7 +948,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>30</v>
@@ -971,7 +971,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>30</v>
@@ -994,7 +994,7 @@
         <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>30</v>
@@ -1017,7 +1017,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>30</v>
@@ -1040,7 +1040,7 @@
         <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>30</v>
@@ -1063,7 +1063,7 @@
         <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>30</v>
@@ -1072,7 +1072,7 @@
         <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>32</v>
@@ -1086,7 +1086,7 @@
         <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>30</v>
@@ -1109,7 +1109,7 @@
         <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>30</v>
@@ -1118,7 +1118,7 @@
         <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>32</v>
@@ -1132,7 +1132,7 @@
         <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>30</v>
@@ -1141,7 +1141,7 @@
         <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>32</v>
@@ -1155,7 +1155,7 @@
         <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>30</v>
@@ -1178,7 +1178,7 @@
         <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>30</v>
@@ -1201,7 +1201,7 @@
         <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>30</v>
@@ -1224,7 +1224,7 @@
         <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>30</v>
@@ -1247,7 +1247,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>30</v>
@@ -1270,7 +1270,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>30</v>
@@ -1293,7 +1293,7 @@
         <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>30</v>
@@ -1316,7 +1316,7 @@
         <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>30</v>
@@ -1339,7 +1339,7 @@
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>30</v>
@@ -1362,7 +1362,7 @@
         <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>30</v>
@@ -1385,7 +1385,7 @@
         <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>30</v>
@@ -1408,7 +1408,7 @@
         <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>30</v>
@@ -1431,7 +1431,7 @@
         <v>83</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>30</v>
@@ -1454,7 +1454,7 @@
         <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>30</v>
@@ -1477,7 +1477,7 @@
         <v>29</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>88</v>
@@ -1500,7 +1500,7 @@
         <v>33</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>88</v>
@@ -1523,7 +1523,7 @@
         <v>35</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>88</v>
@@ -1546,7 +1546,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>88</v>
@@ -1569,7 +1569,7 @@
         <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>88</v>
@@ -1592,7 +1592,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>88</v>
@@ -1615,7 +1615,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>88</v>
@@ -1638,7 +1638,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>88</v>
@@ -1661,7 +1661,7 @@
         <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>88</v>
@@ -1684,7 +1684,7 @@
         <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>88</v>
@@ -1707,7 +1707,7 @@
         <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>88</v>
@@ -1716,7 +1716,7 @@
         <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>89</v>
@@ -1730,7 +1730,7 @@
         <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>88</v>
@@ -1753,7 +1753,7 @@
         <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>88</v>
@@ -1762,7 +1762,7 @@
         <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>89</v>
@@ -1776,7 +1776,7 @@
         <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>88</v>
@@ -1785,7 +1785,7 @@
         <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>89</v>
@@ -1799,7 +1799,7 @@
         <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>88</v>
@@ -1822,7 +1822,7 @@
         <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>88</v>
@@ -1845,7 +1845,7 @@
         <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>88</v>
@@ -1868,7 +1868,7 @@
         <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>88</v>
@@ -1891,7 +1891,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>88</v>
@@ -1914,7 +1914,7 @@
         <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>88</v>
@@ -1937,7 +1937,7 @@
         <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>88</v>
@@ -1960,7 +1960,7 @@
         <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>88</v>
@@ -1983,7 +1983,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>88</v>
@@ -2006,7 +2006,7 @@
         <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>88</v>
@@ -2029,7 +2029,7 @@
         <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>88</v>
@@ -2052,7 +2052,7 @@
         <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>88</v>
@@ -2075,7 +2075,7 @@
         <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>88</v>
@@ -2098,7 +2098,7 @@
         <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>88</v>
@@ -2121,7 +2121,7 @@
         <v>90</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>88</v>
@@ -2144,7 +2144,7 @@
         <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>88</v>
@@ -2167,7 +2167,7 @@
         <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>88</v>
@@ -2190,7 +2190,7 @@
         <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>88</v>
@@ -2213,7 +2213,7 @@
         <v>29</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>99</v>
@@ -2236,7 +2236,7 @@
         <v>33</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>99</v>
@@ -2259,7 +2259,7 @@
         <v>35</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>99</v>
@@ -2282,7 +2282,7 @@
         <v>37</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>99</v>
@@ -2305,7 +2305,7 @@
         <v>39</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>99</v>
@@ -2328,7 +2328,7 @@
         <v>41</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>99</v>
@@ -2351,7 +2351,7 @@
         <v>43</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>99</v>
@@ -2374,7 +2374,7 @@
         <v>45</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>99</v>
@@ -2397,7 +2397,7 @@
         <v>47</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>99</v>
@@ -2420,7 +2420,7 @@
         <v>49</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>99</v>
@@ -2443,7 +2443,7 @@
         <v>51</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>99</v>
@@ -2452,7 +2452,7 @@
         <v>52</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>89</v>
@@ -2466,7 +2466,7 @@
         <v>53</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>99</v>
@@ -2489,7 +2489,7 @@
         <v>55</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>99</v>
@@ -2498,7 +2498,7 @@
         <v>56</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>89</v>
@@ -2512,7 +2512,7 @@
         <v>57</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>99</v>
@@ -2521,7 +2521,7 @@
         <v>58</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>89</v>
@@ -2535,7 +2535,7 @@
         <v>59</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>99</v>
@@ -2558,7 +2558,7 @@
         <v>61</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>99</v>
@@ -2581,7 +2581,7 @@
         <v>63</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>99</v>
@@ -2604,7 +2604,7 @@
         <v>65</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>99</v>
@@ -2627,7 +2627,7 @@
         <v>67</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>99</v>
@@ -2650,7 +2650,7 @@
         <v>69</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>99</v>
@@ -2673,7 +2673,7 @@
         <v>71</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>99</v>
@@ -2696,7 +2696,7 @@
         <v>73</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>99</v>
@@ -2719,7 +2719,7 @@
         <v>75</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>99</v>
@@ -2742,7 +2742,7 @@
         <v>77</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>99</v>
@@ -2765,7 +2765,7 @@
         <v>79</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>99</v>
@@ -2788,7 +2788,7 @@
         <v>81</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>99</v>
@@ -2811,7 +2811,7 @@
         <v>83</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>99</v>
@@ -2834,7 +2834,7 @@
         <v>85</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>99</v>
@@ -2857,7 +2857,7 @@
         <v>90</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>99</v>
@@ -2880,7 +2880,7 @@
         <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>99</v>
@@ -2903,7 +2903,7 @@
         <v>94</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>99</v>
@@ -2926,7 +2926,7 @@
         <v>96</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>99</v>
@@ -2949,7 +2949,7 @@
         <v>29</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>101</v>
@@ -2972,7 +2972,7 @@
         <v>33</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>101</v>
@@ -2995,7 +2995,7 @@
         <v>35</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>101</v>
@@ -3018,7 +3018,7 @@
         <v>37</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>101</v>
@@ -3041,7 +3041,7 @@
         <v>39</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>101</v>
@@ -3064,7 +3064,7 @@
         <v>41</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>101</v>
@@ -3087,7 +3087,7 @@
         <v>43</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>101</v>
@@ -3110,7 +3110,7 @@
         <v>45</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>101</v>
@@ -3133,7 +3133,7 @@
         <v>47</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>101</v>
@@ -3156,7 +3156,7 @@
         <v>49</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>101</v>
@@ -3179,7 +3179,7 @@
         <v>51</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>101</v>
@@ -3188,7 +3188,7 @@
         <v>52</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>21</v>
@@ -3202,7 +3202,7 @@
         <v>53</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>101</v>
@@ -3225,7 +3225,7 @@
         <v>55</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>101</v>
@@ -3234,7 +3234,7 @@
         <v>56</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>21</v>
@@ -3248,7 +3248,7 @@
         <v>57</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>101</v>
@@ -3257,7 +3257,7 @@
         <v>58</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>21</v>
@@ -3271,7 +3271,7 @@
         <v>59</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>101</v>
@@ -3294,7 +3294,7 @@
         <v>61</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>101</v>
@@ -3317,7 +3317,7 @@
         <v>63</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>101</v>
@@ -3340,7 +3340,7 @@
         <v>65</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>101</v>
@@ -3363,7 +3363,7 @@
         <v>67</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>101</v>
@@ -3386,7 +3386,7 @@
         <v>69</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>101</v>
@@ -3409,7 +3409,7 @@
         <v>71</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>101</v>
@@ -3432,7 +3432,7 @@
         <v>73</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>101</v>
@@ -3455,7 +3455,7 @@
         <v>75</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>101</v>
@@ -3478,7 +3478,7 @@
         <v>77</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>101</v>
@@ -3501,7 +3501,7 @@
         <v>79</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>101</v>
@@ -3524,7 +3524,7 @@
         <v>81</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>101</v>
@@ -3547,7 +3547,7 @@
         <v>83</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>101</v>
@@ -3570,7 +3570,7 @@
         <v>85</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>101</v>
@@ -3593,7 +3593,7 @@
         <v>90</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>101</v>
@@ -3616,7 +3616,7 @@
         <v>92</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>101</v>
@@ -3639,7 +3639,7 @@
         <v>94</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>101</v>
@@ -3662,7 +3662,7 @@
         <v>96</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>101</v>
@@ -3685,7 +3685,7 @@
         <v>102</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>101</v>
@@ -3708,7 +3708,7 @@
         <v>105</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>106</v>
@@ -3731,7 +3731,7 @@
         <v>108</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>106</v>
@@ -3754,7 +3754,7 @@
         <v>110</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>106</v>
@@ -3777,7 +3777,7 @@
         <v>112</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>106</v>
@@ -3800,7 +3800,7 @@
         <v>114</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>106</v>
@@ -3823,7 +3823,7 @@
         <v>116</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>106</v>
@@ -3846,7 +3846,7 @@
         <v>117</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>106</v>
@@ -3869,7 +3869,7 @@
         <v>119</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>106</v>
@@ -3892,7 +3892,7 @@
         <v>120</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>106</v>
@@ -3915,7 +3915,7 @@
         <v>122</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>106</v>
@@ -3938,7 +3938,7 @@
         <v>124</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>106</v>
@@ -3961,7 +3961,7 @@
         <v>126</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>106</v>
@@ -3984,7 +3984,7 @@
         <v>129</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>130</v>
@@ -4007,7 +4007,7 @@
         <v>132</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>130</v>
@@ -4030,7 +4030,7 @@
         <v>134</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>130</v>
@@ -4053,7 +4053,7 @@
         <v>57</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>130</v>
@@ -4076,7 +4076,7 @@
         <v>137</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>130</v>
@@ -4099,7 +4099,7 @@
         <v>139</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>130</v>
@@ -4122,7 +4122,7 @@
         <v>141</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>130</v>
@@ -4145,7 +4145,7 @@
         <v>137</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>144</v>
@@ -4168,7 +4168,7 @@
         <v>141</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>144</v>
@@ -4191,7 +4191,7 @@
         <v>129</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>144</v>
@@ -4214,7 +4214,7 @@
         <v>145</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>144</v>
@@ -4237,7 +4237,7 @@
         <v>147</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>144</v>
@@ -4260,7 +4260,7 @@
         <v>149</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>144</v>
@@ -4283,7 +4283,7 @@
         <v>151</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>144</v>
@@ -4306,7 +4306,7 @@
         <v>154</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>155</v>
@@ -4329,7 +4329,7 @@
         <v>157</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>155</v>
@@ -4352,7 +4352,7 @@
         <v>159</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>155</v>
@@ -4375,7 +4375,7 @@
         <v>161</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>155</v>
@@ -4398,7 +4398,7 @@
         <v>163</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>155</v>
@@ -4421,7 +4421,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>155</v>
@@ -4444,7 +4444,7 @@
         <v>168</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>155</v>
